--- a/data/GuideToIterations.xlsx
+++ b/data/GuideToIterations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Google Drive\Dev\src\SSATrust\SSATrust\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FC13D9-46BA-443C-8845-44D53CFE071A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CAF4D0-AEE6-4473-A9DA-0615D1B9148B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17655" windowHeight="10875" xr2:uid="{B67B5C1B-ABB5-4572-9521-917313F2531A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B67B5C1B-ABB5-4572-9521-917313F2531A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="63">
   <si>
     <t>Study Iterations</t>
   </si>
@@ -173,6 +173,57 @@
   </si>
   <si>
     <t>No substance - only population</t>
+  </si>
+  <si>
+    <t>V11</t>
+  </si>
+  <si>
+    <t>Akurey changed final page logic</t>
+  </si>
+  <si>
+    <t>None!</t>
+  </si>
+  <si>
+    <t>V12</t>
+  </si>
+  <si>
+    <t>V10B</t>
+  </si>
+  <si>
+    <t>BBB Population</t>
+  </si>
+  <si>
+    <t>Qualtrics Start Project</t>
+  </si>
+  <si>
+    <t>SSA_Y4_v2_FullApp_Entry_BorP_TrainingOnly</t>
+  </si>
+  <si>
+    <t>SSA_Y4_v2_FullApp_Entry_BBBOrProlific</t>
+  </si>
+  <si>
+    <t>2 Week Delay: Small Test</t>
+  </si>
+  <si>
+    <t>~200</t>
+  </si>
+  <si>
+    <t>V14</t>
+  </si>
+  <si>
+    <t>V15</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Full Nat Rep </t>
+  </si>
+  <si>
+    <t>SSA_Y4_v12_2WeekDelay_Entry</t>
   </si>
 </sst>
 </file>
@@ -208,8 +259,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,396 +579,717 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21728A3D-D7F4-4443-BB4A-7FA6AF87661E}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
       <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>28</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>11</v>
       </c>
-      <c r="P4" t="s">
+      <c r="S4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="C5">
-        <v>1200</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D6">
+        <v>20000</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M6" t="s">
         <v>17</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N6" t="s">
         <v>5</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O6" t="s">
         <v>6</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P6" t="s">
         <v>9</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q6" t="s">
         <v>7</v>
       </c>
-      <c r="O5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="R6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44787</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44787</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M7" t="s">
         <v>17</v>
       </c>
-      <c r="K6" t="s">
+      <c r="N7" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O7" t="s">
         <v>6</v>
-      </c>
-      <c r="M6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O7" t="s">
-        <v>9</v>
       </c>
       <c r="P7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10">
+        <v>1200</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44772</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44774</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44771</v>
+      </c>
+      <c r="G11" s="2">
+        <v>44771</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>44768</v>
+      </c>
+      <c r="G12" s="2">
+        <v>44768</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
+      <c r="D13">
         <v>100</v>
       </c>
-      <c r="D8">
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F13" s="2">
+        <v>44768</v>
+      </c>
+      <c r="G13" s="2">
+        <v>44768</v>
+      </c>
+      <c r="H13" t="s">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I13" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="J13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
         <v>16</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M13" t="s">
         <v>5</v>
       </c>
-      <c r="K8" t="s">
+      <c r="N13" t="s">
         <v>6</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O13" t="s">
         <v>3</v>
       </c>
-      <c r="M8" t="s">
+      <c r="P13" t="s">
         <v>7</v>
       </c>
-      <c r="N8" t="s">
+      <c r="Q13" t="s">
         <v>9</v>
       </c>
-      <c r="O8" t="s">
-        <v>8</v>
-      </c>
-      <c r="P8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="R13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="D9">
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F14" s="2">
+        <v>44767</v>
+      </c>
+      <c r="G14" s="2">
+        <v>44767</v>
+      </c>
+      <c r="H14" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I14" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J14" t="s">
         <v>15</v>
       </c>
-      <c r="H9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" t="s">
         <v>16</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M14" t="s">
         <v>17</v>
       </c>
-      <c r="K9" t="s">
+      <c r="N14" t="s">
         <v>33</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O14" t="s">
         <v>6</v>
       </c>
-      <c r="M9" t="s">
+      <c r="P14" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="Q14" t="s">
         <v>7</v>
       </c>
-      <c r="O9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="R14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="C10">
+      <c r="D15">
         <v>80</v>
       </c>
-      <c r="D10">
+      <c r="E15">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F15" s="2">
+        <v>44766</v>
+      </c>
+      <c r="G15" s="2">
+        <v>44766</v>
+      </c>
+      <c r="H15" t="s">
         <v>30</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I15" t="s">
         <v>32</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J15" t="s">
         <v>15</v>
       </c>
-      <c r="H10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" t="s">
         <v>16</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M15" t="s">
         <v>17</v>
       </c>
-      <c r="K10" t="s">
+      <c r="N15" t="s">
         <v>33</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O15" t="s">
         <v>6</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P15" t="s">
         <v>34</v>
       </c>
-      <c r="N10" t="s">
+      <c r="Q15" t="s">
         <v>7</v>
       </c>
-      <c r="O10" t="s">
-        <v>8</v>
-      </c>
-      <c r="P10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="R15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="C11">
+      <c r="D16">
         <v>80</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>44761</v>
+      </c>
+      <c r="G16" s="2">
+        <v>44761</v>
+      </c>
+      <c r="H16" t="s">
         <v>26</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I16" t="s">
         <v>15</v>
       </c>
-      <c r="G11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="J16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" t="s">
         <v>16</v>
       </c>
-      <c r="I11" t="s">
+      <c r="L16" t="s">
         <v>17</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M16" t="s">
         <v>33</v>
       </c>
-      <c r="K11" t="s">
+      <c r="N16" t="s">
         <v>6</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O16" t="s">
         <v>34</v>
       </c>
-      <c r="M11" t="s">
+      <c r="P16" t="s">
         <v>27</v>
       </c>
-      <c r="N11" t="s">
+      <c r="Q16" t="s">
         <v>29</v>
       </c>
-      <c r="O11" t="s">
+      <c r="R16" t="s">
         <v>29</v>
       </c>
-      <c r="P11" t="s">
+      <c r="S16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
         <v>38</v>
       </c>
-      <c r="C12">
+      <c r="D17">
         <v>1200</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>44751</v>
+      </c>
+      <c r="G17" s="2">
+        <v>44755</v>
+      </c>
+      <c r="H17" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/data/GuideToIterations.xlsx
+++ b/data/GuideToIterations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Google Drive\Dev\src\SSATrust\SSATrust\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CAF4D0-AEE6-4473-A9DA-0615D1B9148B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0F78D5-8B0F-466E-9B4C-0144BE2B2883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B67B5C1B-ABB5-4572-9521-917313F2531A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="76">
   <si>
     <t>Study Iterations</t>
   </si>
@@ -142,9 +142,6 @@
     <t>ssa_replacementCard</t>
   </si>
   <si>
-    <t>Sample</t>
-  </si>
-  <si>
     <t>V3</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
     <t>2 Week Delay: Small Test</t>
   </si>
   <si>
-    <t>~200</t>
-  </si>
-  <si>
     <t>V14</t>
   </si>
   <si>
@@ -224,6 +218,51 @@
   </si>
   <si>
     <t>SSA_Y4_v12_2WeekDelay_Entry</t>
+  </si>
+  <si>
+    <t>2 Week delay, changed order of survey questions accordingly</t>
+  </si>
+  <si>
+    <t>2 Week delay Part 2</t>
+  </si>
+  <si>
+    <t>~1000</t>
+  </si>
+  <si>
+    <t>~20000</t>
+  </si>
+  <si>
+    <t>Sample Invited</t>
+  </si>
+  <si>
+    <t>Num Completes</t>
+  </si>
+  <si>
+    <t>Valid Completes</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>SSA_Y4_v2_FullApp_Entry</t>
+  </si>
+  <si>
+    <t>First Test of Custom Training and Assessment Application</t>
+  </si>
+  <si>
+    <t>First Test, Using Qualtrics Training and Assessment</t>
+  </si>
+  <si>
+    <t>SSA_Y4_v1_FullApp_Entry</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>Num Starts</t>
+  </si>
+  <si>
+    <t>Completion Rate</t>
   </si>
 </sst>
 </file>
@@ -579,581 +618,683 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21728A3D-D7F4-4443-BB4A-7FA6AF87661E}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="49.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
         <v>60</v>
       </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>1251</v>
+      </c>
+      <c r="E5">
+        <v>1251</v>
+      </c>
+      <c r="F5">
+        <v>1220</v>
+      </c>
+      <c r="G5">
+        <v>1214</v>
+      </c>
+      <c r="H5">
+        <f>G5/E5</f>
+        <v>0.97042366107114308</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2">
+        <v>44787</v>
+      </c>
+      <c r="K5" s="2">
+        <v>44790</v>
+      </c>
+      <c r="L5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1251</v>
+      </c>
+      <c r="E6">
+        <v>1251</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="1">
+        <v>951</v>
+      </c>
+      <c r="H6">
+        <f>G6/E6</f>
+        <v>0.76019184652278182</v>
+      </c>
+      <c r="J6" s="2">
+        <v>44806</v>
+      </c>
+      <c r="K6" s="2">
+        <v>44817</v>
+      </c>
+      <c r="L6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6">
-        <v>20000</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="s">
         <v>32</v>
       </c>
-      <c r="J6" t="s">
+      <c r="N6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
         <v>16</v>
       </c>
-      <c r="M6" t="s">
+      <c r="Q6" t="s">
         <v>17</v>
       </c>
-      <c r="N6" t="s">
+      <c r="R6" t="s">
         <v>5</v>
       </c>
-      <c r="O6" t="s">
+      <c r="S6" t="s">
         <v>6</v>
       </c>
-      <c r="P6" t="s">
+      <c r="T6" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="U6" t="s">
         <v>7</v>
       </c>
-      <c r="R6" t="s">
+      <c r="V6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7">
-        <v>40</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>44787</v>
-      </c>
-      <c r="G7" s="2">
-        <v>44787</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1042</v>
+      </c>
+      <c r="F7" s="1">
+        <v>682</v>
+      </c>
+      <c r="G7">
+        <v>593</v>
+      </c>
+      <c r="H7">
+        <f>G7/E7</f>
+        <v>0.56909788867562383</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
         <v>32</v>
       </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>15</v>
       </c>
-      <c r="K7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="Q7" t="s">
         <v>17</v>
       </c>
-      <c r="N7" t="s">
+      <c r="R7" t="s">
         <v>5</v>
       </c>
-      <c r="O7" t="s">
+      <c r="S7" t="s">
         <v>6</v>
       </c>
-      <c r="P7" t="s">
+      <c r="T7" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="U7" t="s">
         <v>7</v>
       </c>
-      <c r="R7" t="s">
+      <c r="V7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>40</v>
       </c>
       <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2">
+        <v>44787</v>
+      </c>
+      <c r="K8" s="2">
+        <v>44787</v>
+      </c>
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="I9">
         <v>2</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J9" s="2">
+        <v>44783</v>
+      </c>
+      <c r="K9" s="2">
+        <v>44783</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U9" t="s">
+        <v>7</v>
+      </c>
+      <c r="V9" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" t="s">
         <v>47</v>
       </c>
-      <c r="I8" t="s">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>200</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" s="2">
+        <v>44776</v>
+      </c>
+      <c r="K10" s="2">
+        <v>44782</v>
+      </c>
+      <c r="L10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
         <v>32</v>
       </c>
-      <c r="J8" t="s">
+      <c r="N10" t="s">
         <v>15</v>
       </c>
-      <c r="K8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" t="s">
         <v>16</v>
       </c>
-      <c r="M8" t="s">
+      <c r="Q10" t="s">
         <v>17</v>
       </c>
-      <c r="N8" t="s">
+      <c r="R10" t="s">
         <v>5</v>
       </c>
-      <c r="O8" t="s">
+      <c r="S10" t="s">
         <v>6</v>
       </c>
-      <c r="P8" t="s">
+      <c r="T10" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="U10" t="s">
         <v>7</v>
       </c>
-      <c r="R8" t="s">
+      <c r="V10" t="s">
         <v>8</v>
       </c>
-      <c r="S8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="W10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>1244</v>
+      </c>
+      <c r="E11">
+        <f>D11</f>
+        <v>1244</v>
+      </c>
+      <c r="F11">
+        <v>1195</v>
+      </c>
+      <c r="G11">
+        <v>1191</v>
+      </c>
+      <c r="H11">
+        <f>G11/E11</f>
+        <v>0.957395498392283</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11" s="2">
+        <v>44772</v>
+      </c>
+      <c r="K11" s="2">
+        <v>44774</v>
+      </c>
+      <c r="L11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" t="s">
         <v>32</v>
       </c>
-      <c r="J9" t="s">
+      <c r="N11" t="s">
         <v>15</v>
       </c>
-      <c r="K9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="O11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" t="s">
         <v>16</v>
       </c>
-      <c r="M9" t="s">
+      <c r="Q11" t="s">
         <v>17</v>
       </c>
-      <c r="N9" t="s">
+      <c r="R11" t="s">
         <v>5</v>
       </c>
-      <c r="O9" t="s">
+      <c r="S11" t="s">
         <v>6</v>
       </c>
-      <c r="P9" t="s">
+      <c r="T11" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="U11" t="s">
         <v>7</v>
       </c>
-      <c r="R9" t="s">
+      <c r="V11" t="s">
         <v>8</v>
       </c>
-      <c r="S9" t="s">
+      <c r="W11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10">
-        <v>1200</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2">
-        <v>44772</v>
-      </c>
-      <c r="G10" s="2">
-        <v>44774</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" t="s">
-        <v>6</v>
-      </c>
-      <c r="P10" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>7</v>
-      </c>
-      <c r="R10" t="s">
-        <v>8</v>
-      </c>
-      <c r="S10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11">
-        <v>100</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2">
-        <v>44771</v>
-      </c>
-      <c r="G11" s="2">
-        <v>44771</v>
-      </c>
-      <c r="H11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O11" t="s">
-        <v>6</v>
-      </c>
-      <c r="P11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>7</v>
-      </c>
-      <c r="R11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>100</v>
       </c>
       <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2">
+        <v>44771</v>
+      </c>
+      <c r="K12" s="2">
+        <v>44771</v>
+      </c>
+      <c r="L12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U12" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
         <v>2</v>
-      </c>
-      <c r="F12" s="2">
-        <v>44768</v>
-      </c>
-      <c r="G12" s="2">
-        <v>44768</v>
-      </c>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" t="s">
-        <v>6</v>
-      </c>
-      <c r="P12" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>8</v>
-      </c>
-      <c r="R12" t="s">
-        <v>9</v>
-      </c>
-      <c r="S12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
       </c>
       <c r="D13">
         <v>100</v>
       </c>
       <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="I13">
         <v>2</v>
       </c>
-      <c r="F13" s="2">
+      <c r="J13" s="2">
         <v>44768</v>
       </c>
-      <c r="G13" s="2">
+      <c r="K13" s="2">
         <v>44768</v>
       </c>
-      <c r="H13" t="s">
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>44768</v>
+      </c>
+      <c r="K14" s="2">
+        <v>44768</v>
+      </c>
+      <c r="L14" t="s">
         <v>23</v>
       </c>
-      <c r="I13" t="s">
+      <c r="M14" t="s">
         <v>15</v>
       </c>
-      <c r="J13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="N14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
         <v>16</v>
       </c>
-      <c r="L13" t="s">
+      <c r="P14" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="Q14" t="s">
         <v>5</v>
       </c>
-      <c r="N13" t="s">
+      <c r="R14" t="s">
         <v>6</v>
       </c>
-      <c r="O13" t="s">
+      <c r="S14" t="s">
         <v>3</v>
       </c>
-      <c r="P13" t="s">
+      <c r="T14" t="s">
         <v>7</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="U14" t="s">
         <v>9</v>
       </c>
-      <c r="R13" t="s">
+      <c r="V14" t="s">
         <v>8</v>
       </c>
-      <c r="S13" t="s">
+      <c r="W14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14">
-        <v>80</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>44767</v>
-      </c>
-      <c r="G14" s="2">
-        <v>44767</v>
-      </c>
-      <c r="H14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>7</v>
-      </c>
-      <c r="R14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -1162,134 +1303,288 @@
         <v>80</v>
       </c>
       <c r="E15">
+        <v>80</v>
+      </c>
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="F15" s="2">
-        <v>44766</v>
-      </c>
-      <c r="G15" s="2">
-        <v>44766</v>
-      </c>
-      <c r="H15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" s="2">
+        <v>44767</v>
+      </c>
+      <c r="K15" s="2">
+        <v>44767</v>
+      </c>
+      <c r="L15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" t="s">
         <v>32</v>
       </c>
-      <c r="J15" t="s">
+      <c r="N15" t="s">
         <v>15</v>
       </c>
-      <c r="K15" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="O15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" t="s">
         <v>16</v>
       </c>
-      <c r="M15" t="s">
+      <c r="Q15" t="s">
         <v>17</v>
       </c>
-      <c r="N15" t="s">
+      <c r="R15" t="s">
         <v>33</v>
       </c>
-      <c r="O15" t="s">
+      <c r="S15" t="s">
         <v>6</v>
       </c>
-      <c r="P15" t="s">
+      <c r="T15" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="U15" t="s">
         <v>7</v>
       </c>
-      <c r="R15" t="s">
+      <c r="V15" t="s">
         <v>8</v>
       </c>
-      <c r="S15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16">
         <v>80</v>
       </c>
       <c r="E16">
+        <v>80</v>
+      </c>
+      <c r="I16">
         <v>2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="J16" s="2">
+        <v>44766</v>
+      </c>
+      <c r="K16" s="2">
+        <v>44766</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" t="s">
+        <v>33</v>
+      </c>
+      <c r="S16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" t="s">
+        <v>34</v>
+      </c>
+      <c r="U16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V16" t="s">
+        <v>8</v>
+      </c>
+      <c r="W16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>80</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" s="2">
         <v>44761</v>
       </c>
-      <c r="G16" s="2">
+      <c r="K17" s="2">
         <v>44761</v>
       </c>
-      <c r="H16" t="s">
+      <c r="L17" t="s">
         <v>26</v>
       </c>
-      <c r="I16" t="s">
+      <c r="M17" t="s">
         <v>15</v>
       </c>
-      <c r="J16" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="N17" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" t="s">
         <v>16</v>
       </c>
-      <c r="L16" t="s">
+      <c r="P17" t="s">
         <v>17</v>
       </c>
-      <c r="M16" t="s">
+      <c r="Q17" t="s">
         <v>33</v>
       </c>
-      <c r="N16" t="s">
+      <c r="R17" t="s">
         <v>6</v>
       </c>
-      <c r="O16" t="s">
+      <c r="S17" t="s">
         <v>34</v>
       </c>
-      <c r="P16" t="s">
+      <c r="T17" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="U17" t="s">
         <v>29</v>
       </c>
-      <c r="R16" t="s">
+      <c r="V17" t="s">
         <v>29</v>
       </c>
-      <c r="S16" t="s">
+      <c r="W17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17">
-        <v>1200</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>1226</v>
+      </c>
+      <c r="E18">
+        <v>1226</v>
+      </c>
+      <c r="F18">
+        <v>1196</v>
+      </c>
+      <c r="G18">
+        <v>1192</v>
+      </c>
+      <c r="H18">
+        <f>G18/E18</f>
+        <v>0.97226753670473087</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18" s="2">
         <v>44751</v>
       </c>
-      <c r="G17" s="2">
+      <c r="K18" s="2">
         <v>44755</v>
       </c>
-      <c r="H17" t="s">
-        <v>61</v>
+      <c r="L18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19" s="2">
+        <v>44746</v>
+      </c>
+      <c r="K19" s="2">
+        <v>44746</v>
+      </c>
+      <c r="L19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>288</v>
+      </c>
+      <c r="E20">
+        <v>288</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20" s="2">
+        <v>44670</v>
+      </c>
+      <c r="K20" s="2">
+        <v>44671</v>
+      </c>
+      <c r="L20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f>SUM(E6:E20)</f>
+        <v>5891</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f>E21-E18-E11-E7-E6</f>
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f>E21-E7</f>
+        <v>4849</v>
       </c>
     </row>
   </sheetData>
